--- a/PlannedMaintenance_Report.xlsx
+++ b/PlannedMaintenance_Report.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -423,22 +423,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1522</v>
+        <v>1085</v>
       </c>
       <c r="B2" t="str">
-        <v>HANHANE-III</v>
+        <v>LAULANE-II</v>
       </c>
       <c r="C2" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="D2" t="str">
-        <v>EDM Prepaid / Credelec</v>
+        <v>null</v>
       </c>
       <c r="E2" t="str">
         <v>Juma Adamo</v>
       </c>
       <c r="F2" t="str">
-        <v>13/12/2022</v>
+        <v>29/12/2022</v>
       </c>
       <c r="G2" t="str">
         <v>Telco</v>
@@ -447,7 +447,7 @@
         <v>maputo</v>
       </c>
       <c r="I2" t="str">
-        <v>Work Done</v>
+        <v>On hold</v>
       </c>
       <c r="J2" t="str">
         <v>No</v>
@@ -456,7 +456,7 @@
         <v>No</v>
       </c>
       <c r="L2" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="M2" t="str">
         <v>No</v>
@@ -464,22 +464,22 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>1475</v>
+        <v>1003</v>
       </c>
       <c r="B3" t="str">
-        <v>VLADIMIR-LENINE-II</v>
+        <v>AEROPORTO-DE-MAPUTO-I</v>
       </c>
       <c r="C3" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="D3" t="str">
-        <v>EDM Prepaid / Credelec</v>
+        <v>null</v>
       </c>
       <c r="E3" t="str">
         <v>Juma Adamo</v>
       </c>
       <c r="F3" t="str">
-        <v>13/12/2022</v>
+        <v>29/12/2022</v>
       </c>
       <c r="G3" t="str">
         <v>Telco</v>
@@ -488,7 +488,7 @@
         <v>maputo</v>
       </c>
       <c r="I3" t="str">
-        <v>Work Done</v>
+        <v>On hold</v>
       </c>
       <c r="J3" t="str">
         <v>No</v>
@@ -497,7 +497,7 @@
         <v>No</v>
       </c>
       <c r="L3" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="M3" t="str">
         <v>No</v>
@@ -505,22 +505,22 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>6249</v>
+        <v>1674</v>
       </c>
       <c r="B4" t="str">
-        <v>BOM-GARFO-MICROBTS</v>
+        <v>MERCADO-ESTRELA-VERMELHA-RT</v>
       </c>
       <c r="C4" t="str">
         <v>No</v>
       </c>
       <c r="D4" t="str">
-        <v>Landlord</v>
+        <v>EDM Prepaid / Credelec</v>
       </c>
       <c r="E4" t="str">
         <v>Juma Adamo</v>
       </c>
       <c r="F4" t="str">
-        <v>13/12/2022</v>
+        <v>16/12/2022</v>
       </c>
       <c r="G4" t="str">
         <v>Telco</v>
@@ -538,7 +538,7 @@
         <v>No</v>
       </c>
       <c r="L4" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="M4" t="str">
         <v>No</v>
@@ -546,10 +546,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>6490</v>
+        <v>6503</v>
       </c>
       <c r="B5" t="str">
-        <v>33-STOREY-HUB</v>
+        <v>TUDOBOM</v>
       </c>
       <c r="C5" t="str">
         <v>No</v>
@@ -561,7 +561,7 @@
         <v>Juma Adamo</v>
       </c>
       <c r="F5" t="str">
-        <v>14/12/2022</v>
+        <v>16/12/2022</v>
       </c>
       <c r="G5" t="str">
         <v>Telco</v>
@@ -570,7 +570,7 @@
         <v>maputo</v>
       </c>
       <c r="I5" t="str">
-        <v>Work Done</v>
+        <v>On hold</v>
       </c>
       <c r="J5" t="str">
         <v>No</v>
@@ -587,10 +587,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>1674</v>
+        <v>1584</v>
       </c>
       <c r="B6" t="str">
-        <v>MERCADO-ESTRELA-VERMELHA-RT</v>
+        <v>PATRICE-LUMUMBA-II</v>
       </c>
       <c r="C6" t="str">
         <v>No</v>
@@ -602,7 +602,7 @@
         <v>Juma Adamo</v>
       </c>
       <c r="F6" t="str">
-        <v>16/12/2022</v>
+        <v>19/12/2022</v>
       </c>
       <c r="G6" t="str">
         <v>Telco</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>1584</v>
+        <v>1567</v>
       </c>
       <c r="B7" t="str">
-        <v>PATRICE-LUMUMBA-II</v>
+        <v>NKOBE-VI</v>
       </c>
       <c r="C7" t="str">
         <v>No</v>
@@ -661,7 +661,7 @@
         <v>No</v>
       </c>
       <c r="L7" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="M7" t="str">
         <v>No</v>
@@ -669,22 +669,22 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>1567</v>
+        <v>1625</v>
       </c>
       <c r="B8" t="str">
-        <v>NKOBE-VI</v>
+        <v>MANHANGALENE-COLOMBIA</v>
       </c>
       <c r="C8" t="str">
         <v>No</v>
       </c>
       <c r="D8" t="str">
-        <v>EDM Prepaid / Credelec</v>
+        <v>EDM Prepaid/Credelec</v>
       </c>
       <c r="E8" t="str">
         <v>Juma Adamo</v>
       </c>
       <c r="F8" t="str">
-        <v>19/12/2022</v>
+        <v>20/12/2022</v>
       </c>
       <c r="G8" t="str">
         <v>Telco</v>
@@ -702,7 +702,7 @@
         <v>No</v>
       </c>
       <c r="L8" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="M8" t="str">
         <v>No</v>
@@ -710,16 +710,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="B9" t="str">
-        <v>MANHANGALENE-COLOMBIA</v>
+        <v>AVENIDA-DA-ZAMBIA</v>
       </c>
       <c r="C9" t="str">
         <v>No</v>
       </c>
       <c r="D9" t="str">
-        <v>EDM Prepaid/Credelec</v>
+        <v>Landlord</v>
       </c>
       <c r="E9" t="str">
         <v>Juma Adamo</v>
@@ -734,7 +734,7 @@
         <v>maputo</v>
       </c>
       <c r="I9" t="str">
-        <v>Work Done</v>
+        <v>Planned</v>
       </c>
       <c r="J9" t="str">
         <v>No</v>
@@ -743,7 +743,7 @@
         <v>No</v>
       </c>
       <c r="L9" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="M9" t="str">
         <v>No</v>
@@ -956,22 +956,22 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>1068</v>
+        <v>6509</v>
       </c>
       <c r="B15" t="str">
-        <v>XIPAMANINE</v>
+        <v>JAT-V-II</v>
       </c>
       <c r="C15" t="str">
         <v>No</v>
       </c>
       <c r="D15" t="str">
-        <v>null</v>
+        <v>Landlord</v>
       </c>
       <c r="E15" t="str">
         <v>Juma Adamo</v>
       </c>
       <c r="F15" t="str">
-        <v>27/12/2022</v>
+        <v>23/12/2022</v>
       </c>
       <c r="G15" t="str">
         <v>Telco</v>
@@ -980,7 +980,7 @@
         <v>maputo</v>
       </c>
       <c r="I15" t="str">
-        <v>Work Done</v>
+        <v>On hold</v>
       </c>
       <c r="J15" t="str">
         <v>No</v>
@@ -989,7 +989,7 @@
         <v>No</v>
       </c>
       <c r="L15" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="M15" t="str">
         <v>No</v>
@@ -997,22 +997,22 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>1529</v>
+        <v>1068</v>
       </c>
       <c r="B16" t="str">
-        <v>ZONA-VERDE-V</v>
+        <v>XIPAMANINE</v>
       </c>
       <c r="C16" t="str">
         <v>No</v>
       </c>
       <c r="D16" t="str">
-        <v>EDM Prepaid / Credelec</v>
+        <v>null</v>
       </c>
       <c r="E16" t="str">
         <v>Juma Adamo</v>
       </c>
       <c r="F16" t="str">
-        <v>14/12/2022</v>
+        <v>27/12/2022</v>
       </c>
       <c r="G16" t="str">
         <v>Telco</v>
@@ -1038,48 +1038,212 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
+        <v>1735</v>
+      </c>
+      <c r="B17" t="str">
+        <v>MESQUITA-DA-POLANA</v>
+      </c>
+      <c r="C17" t="str">
+        <v>No</v>
+      </c>
+      <c r="D17" t="str">
+        <v>EDM Prepaid / Credelec</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Juma Adamo</v>
+      </c>
+      <c r="F17" t="str">
+        <v>28/12/2022</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Telco</v>
+      </c>
+      <c r="H17" t="str">
+        <v>maputo</v>
+      </c>
+      <c r="I17" t="str">
+        <v>On site</v>
+      </c>
+      <c r="J17" t="str">
+        <v>No</v>
+      </c>
+      <c r="K17" t="str">
+        <v>No</v>
+      </c>
+      <c r="L17" t="str">
+        <v>No</v>
+      </c>
+      <c r="M17" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>1737</v>
+      </c>
+      <c r="B18" t="str">
+        <v>ESCOLA-DA-POLANA</v>
+      </c>
+      <c r="C18" t="str">
+        <v>No</v>
+      </c>
+      <c r="D18" t="str">
+        <v>EDM Prepaid / Credelec</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Juma Adamo</v>
+      </c>
+      <c r="F18" t="str">
+        <v>28/12/2022</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Telco</v>
+      </c>
+      <c r="H18" t="str">
+        <v>maputo</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Planned</v>
+      </c>
+      <c r="J18" t="str">
+        <v>No</v>
+      </c>
+      <c r="K18" t="str">
+        <v>No</v>
+      </c>
+      <c r="L18" t="str">
+        <v>No</v>
+      </c>
+      <c r="M18" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>1237</v>
+      </c>
+      <c r="B19" t="str">
+        <v>RESIDENCIA-SELF</v>
+      </c>
+      <c r="C19" t="str">
+        <v>No</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Landlord</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Juma Adamo</v>
+      </c>
+      <c r="F19" t="str">
+        <v>30/12/2022</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Telco</v>
+      </c>
+      <c r="H19" t="str">
+        <v>maputo</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Planned</v>
+      </c>
+      <c r="J19" t="str">
+        <v>No</v>
+      </c>
+      <c r="K19" t="str">
+        <v>No</v>
+      </c>
+      <c r="L19" t="str">
+        <v>No</v>
+      </c>
+      <c r="M19" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>1621</v>
+      </c>
+      <c r="B20" t="str">
+        <v>UNIVERSIDADE-DE-SAO-TOMAS</v>
+      </c>
+      <c r="C20" t="str">
+        <v>No</v>
+      </c>
+      <c r="D20" t="str">
+        <v>EDM Prepaid / Credelec</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Juma Adamo</v>
+      </c>
+      <c r="F20" t="str">
+        <v>30/12/2022</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Telco</v>
+      </c>
+      <c r="H20" t="str">
+        <v>maputo</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Planned</v>
+      </c>
+      <c r="J20" t="str">
+        <v>No</v>
+      </c>
+      <c r="K20" t="str">
+        <v>No</v>
+      </c>
+      <c r="L20" t="str">
+        <v>No</v>
+      </c>
+      <c r="M20" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
         <v>1216</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B21" t="str">
         <v>MATENDENE-II</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C21" t="str">
         <v>Yes</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D21" t="str">
         <v>null</v>
       </c>
-      <c r="E17" t="str">
-        <v>Juma Adamo</v>
-      </c>
-      <c r="F17" t="str">
+      <c r="E21" t="str">
+        <v>Juma Adamo</v>
+      </c>
+      <c r="F21" t="str">
         <v>15/12/2022</v>
       </c>
-      <c r="G17" t="str">
-        <v>Telco</v>
-      </c>
-      <c r="H17" t="str">
-        <v>maputo</v>
-      </c>
-      <c r="I17" t="str">
+      <c r="G21" t="str">
+        <v>Telco</v>
+      </c>
+      <c r="H21" t="str">
+        <v>maputo</v>
+      </c>
+      <c r="I21" t="str">
         <v>Work Done</v>
       </c>
-      <c r="J17" t="str">
-        <v>No</v>
-      </c>
-      <c r="K17" t="str">
-        <v>No</v>
-      </c>
-      <c r="L17" t="str">
+      <c r="J21" t="str">
+        <v>No</v>
+      </c>
+      <c r="K21" t="str">
+        <v>No</v>
+      </c>
+      <c r="L21" t="str">
         <v>Yes</v>
       </c>
-      <c r="M17" t="str">
+      <c r="M21" t="str">
         <v>No</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M21"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/PlannedMaintenance_Report.xlsx
+++ b/PlannedMaintenance_Report.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -447,16 +447,16 @@
         <v>maputo</v>
       </c>
       <c r="I2" t="str">
-        <v>On hold</v>
+        <v>Work Done</v>
       </c>
       <c r="J2" t="str">
         <v>No</v>
       </c>
       <c r="K2" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="L2" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="M2" t="str">
         <v>No</v>
@@ -488,13 +488,13 @@
         <v>maputo</v>
       </c>
       <c r="I3" t="str">
-        <v>On hold</v>
+        <v>Work Done</v>
       </c>
       <c r="J3" t="str">
         <v>No</v>
       </c>
       <c r="K3" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="L3" t="str">
         <v>No</v>
@@ -505,13 +505,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>1674</v>
+        <v>1034</v>
       </c>
       <c r="B4" t="str">
-        <v>MERCADO-ESTRELA-VERMELHA-RT</v>
+        <v>B-MAGOANINE</v>
       </c>
       <c r="C4" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="D4" t="str">
         <v>EDM Prepaid / Credelec</v>
@@ -520,7 +520,7 @@
         <v>Juma Adamo</v>
       </c>
       <c r="F4" t="str">
-        <v>16/12/2022</v>
+        <v>30/12/2022</v>
       </c>
       <c r="G4" t="str">
         <v>Telco</v>
@@ -535,7 +535,7 @@
         <v>No</v>
       </c>
       <c r="K4" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="L4" t="str">
         <v>Yes</v>
@@ -546,22 +546,22 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>6503</v>
+        <v>1584</v>
       </c>
       <c r="B5" t="str">
-        <v>TUDOBOM</v>
+        <v>PATRICE-LUMUMBA-II</v>
       </c>
       <c r="C5" t="str">
         <v>No</v>
       </c>
       <c r="D5" t="str">
-        <v>Landlord</v>
+        <v>EDM Prepaid / Credelec</v>
       </c>
       <c r="E5" t="str">
         <v>Juma Adamo</v>
       </c>
       <c r="F5" t="str">
-        <v>16/12/2022</v>
+        <v>19/12/2022</v>
       </c>
       <c r="G5" t="str">
         <v>Telco</v>
@@ -570,7 +570,7 @@
         <v>maputo</v>
       </c>
       <c r="I5" t="str">
-        <v>On hold</v>
+        <v>Work Done</v>
       </c>
       <c r="J5" t="str">
         <v>No</v>
@@ -579,7 +579,7 @@
         <v>No</v>
       </c>
       <c r="L5" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="M5" t="str">
         <v>No</v>
@@ -587,10 +587,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>1584</v>
+        <v>1567</v>
       </c>
       <c r="B6" t="str">
-        <v>PATRICE-LUMUMBA-II</v>
+        <v>NKOBE-VI</v>
       </c>
       <c r="C6" t="str">
         <v>No</v>
@@ -620,7 +620,7 @@
         <v>No</v>
       </c>
       <c r="L6" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="M6" t="str">
         <v>No</v>
@@ -628,22 +628,22 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>1567</v>
+        <v>1625</v>
       </c>
       <c r="B7" t="str">
-        <v>NKOBE-VI</v>
+        <v>MANHANGALENE-COLOMBIA</v>
       </c>
       <c r="C7" t="str">
         <v>No</v>
       </c>
       <c r="D7" t="str">
-        <v>EDM Prepaid / Credelec</v>
+        <v>EDM Prepaid/Credelec</v>
       </c>
       <c r="E7" t="str">
         <v>Juma Adamo</v>
       </c>
       <c r="F7" t="str">
-        <v>19/12/2022</v>
+        <v>20/12/2022</v>
       </c>
       <c r="G7" t="str">
         <v>Telco</v>
@@ -661,7 +661,7 @@
         <v>No</v>
       </c>
       <c r="L7" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="M7" t="str">
         <v>No</v>
@@ -669,10 +669,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>1625</v>
+        <v>1240</v>
       </c>
       <c r="B8" t="str">
-        <v>MANHANGALENE-COLOMBIA</v>
+        <v>MARTIRES-DA-MACHAVA</v>
       </c>
       <c r="C8" t="str">
         <v>No</v>
@@ -684,7 +684,7 @@
         <v>Juma Adamo</v>
       </c>
       <c r="F8" t="str">
-        <v>20/12/2022</v>
+        <v>21/12/2022</v>
       </c>
       <c r="G8" t="str">
         <v>Telco</v>
@@ -696,7 +696,7 @@
         <v>Work Done</v>
       </c>
       <c r="J8" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="K8" t="str">
         <v>No</v>
@@ -710,22 +710,22 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>1627</v>
+        <v>1465</v>
       </c>
       <c r="B9" t="str">
-        <v>AVENIDA-DA-ZAMBIA</v>
+        <v>JARDIM-DOS-CRONISTAS</v>
       </c>
       <c r="C9" t="str">
         <v>No</v>
       </c>
       <c r="D9" t="str">
-        <v>Landlord</v>
+        <v>EDM Prepaid / Credelec</v>
       </c>
       <c r="E9" t="str">
         <v>Juma Adamo</v>
       </c>
       <c r="F9" t="str">
-        <v>20/12/2022</v>
+        <v>21/12/2022</v>
       </c>
       <c r="G9" t="str">
         <v>Telco</v>
@@ -734,7 +734,7 @@
         <v>maputo</v>
       </c>
       <c r="I9" t="str">
-        <v>Planned</v>
+        <v>Work Done</v>
       </c>
       <c r="J9" t="str">
         <v>No</v>
@@ -743,7 +743,7 @@
         <v>No</v>
       </c>
       <c r="L9" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="M9" t="str">
         <v>No</v>
@@ -751,22 +751,22 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>1240</v>
+        <v>1461</v>
       </c>
       <c r="B10" t="str">
-        <v>MARTIRES-DA-MACHAVA</v>
+        <v>VODASHOP-ALTO-MAE</v>
       </c>
       <c r="C10" t="str">
         <v>No</v>
       </c>
       <c r="D10" t="str">
-        <v>EDM Prepaid/Credelec</v>
+        <v>Landlord</v>
       </c>
       <c r="E10" t="str">
         <v>Juma Adamo</v>
       </c>
       <c r="F10" t="str">
-        <v>21/12/2022</v>
+        <v>22/12/2022</v>
       </c>
       <c r="G10" t="str">
         <v>Telco</v>
@@ -778,13 +778,13 @@
         <v>Work Done</v>
       </c>
       <c r="J10" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="K10" t="str">
         <v>No</v>
       </c>
       <c r="L10" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="M10" t="str">
         <v>No</v>
@@ -792,22 +792,22 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>1465</v>
+        <v>1480</v>
       </c>
       <c r="B11" t="str">
-        <v>JARDIM-DOS-CRONISTAS</v>
+        <v>CONDOMINIO-XILUVA</v>
       </c>
       <c r="C11" t="str">
         <v>No</v>
       </c>
       <c r="D11" t="str">
-        <v>EDM Prepaid / Credelec</v>
+        <v>Landlord</v>
       </c>
       <c r="E11" t="str">
         <v>Juma Adamo</v>
       </c>
       <c r="F11" t="str">
-        <v>21/12/2022</v>
+        <v>22/12/2022</v>
       </c>
       <c r="G11" t="str">
         <v>Telco</v>
@@ -825,7 +825,7 @@
         <v>No</v>
       </c>
       <c r="L11" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="M11" t="str">
         <v>No</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>1461</v>
+        <v>6242</v>
       </c>
       <c r="B12" t="str">
-        <v>VODASHOP-ALTO-MAE</v>
+        <v>25-SETEMBRO-AT-MICROBTS</v>
       </c>
       <c r="C12" t="str">
         <v>No</v>
@@ -848,7 +848,7 @@
         <v>Juma Adamo</v>
       </c>
       <c r="F12" t="str">
-        <v>22/12/2022</v>
+        <v>23/12/2022</v>
       </c>
       <c r="G12" t="str">
         <v>Telco</v>
@@ -874,10 +874,10 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>1480</v>
+        <v>6509</v>
       </c>
       <c r="B13" t="str">
-        <v>CONDOMINIO-XILUVA</v>
+        <v>JAT-V-II</v>
       </c>
       <c r="C13" t="str">
         <v>No</v>
@@ -889,7 +889,7 @@
         <v>Juma Adamo</v>
       </c>
       <c r="F13" t="str">
-        <v>22/12/2022</v>
+        <v>23/12/2022</v>
       </c>
       <c r="G13" t="str">
         <v>Telco</v>
@@ -898,7 +898,7 @@
         <v>maputo</v>
       </c>
       <c r="I13" t="str">
-        <v>Work Done</v>
+        <v>On hold</v>
       </c>
       <c r="J13" t="str">
         <v>No</v>
@@ -915,22 +915,22 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>6242</v>
+        <v>1068</v>
       </c>
       <c r="B14" t="str">
-        <v>25-SETEMBRO-AT-MICROBTS</v>
+        <v>XIPAMANINE</v>
       </c>
       <c r="C14" t="str">
         <v>No</v>
       </c>
       <c r="D14" t="str">
-        <v>Landlord</v>
+        <v>null</v>
       </c>
       <c r="E14" t="str">
         <v>Juma Adamo</v>
       </c>
       <c r="F14" t="str">
-        <v>23/12/2022</v>
+        <v>27/12/2022</v>
       </c>
       <c r="G14" t="str">
         <v>Telco</v>
@@ -948,7 +948,7 @@
         <v>No</v>
       </c>
       <c r="L14" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="M14" t="str">
         <v>No</v>
@@ -956,22 +956,22 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>6509</v>
+        <v>1735</v>
       </c>
       <c r="B15" t="str">
-        <v>JAT-V-II</v>
+        <v>MESQUITA-DA-POLANA</v>
       </c>
       <c r="C15" t="str">
         <v>No</v>
       </c>
       <c r="D15" t="str">
-        <v>Landlord</v>
+        <v>EDM Prepaid / Credelec</v>
       </c>
       <c r="E15" t="str">
         <v>Juma Adamo</v>
       </c>
       <c r="F15" t="str">
-        <v>23/12/2022</v>
+        <v>28/12/2022</v>
       </c>
       <c r="G15" t="str">
         <v>Telco</v>
@@ -980,7 +980,7 @@
         <v>maputo</v>
       </c>
       <c r="I15" t="str">
-        <v>On hold</v>
+        <v>Work Done</v>
       </c>
       <c r="J15" t="str">
         <v>No</v>
@@ -989,7 +989,7 @@
         <v>No</v>
       </c>
       <c r="L15" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="M15" t="str">
         <v>No</v>
@@ -997,22 +997,22 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>1068</v>
+        <v>1737</v>
       </c>
       <c r="B16" t="str">
-        <v>XIPAMANINE</v>
+        <v>ESCOLA-DA-POLANA</v>
       </c>
       <c r="C16" t="str">
         <v>No</v>
       </c>
       <c r="D16" t="str">
-        <v>null</v>
+        <v>EDM Prepaid / Credelec</v>
       </c>
       <c r="E16" t="str">
         <v>Juma Adamo</v>
       </c>
       <c r="F16" t="str">
-        <v>27/12/2022</v>
+        <v>28/12/2022</v>
       </c>
       <c r="G16" t="str">
         <v>Telco</v>
@@ -1033,217 +1033,12 @@
         <v>Yes</v>
       </c>
       <c r="M16" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>1735</v>
-      </c>
-      <c r="B17" t="str">
-        <v>MESQUITA-DA-POLANA</v>
-      </c>
-      <c r="C17" t="str">
-        <v>No</v>
-      </c>
-      <c r="D17" t="str">
-        <v>EDM Prepaid / Credelec</v>
-      </c>
-      <c r="E17" t="str">
-        <v>Juma Adamo</v>
-      </c>
-      <c r="F17" t="str">
-        <v>28/12/2022</v>
-      </c>
-      <c r="G17" t="str">
-        <v>Telco</v>
-      </c>
-      <c r="H17" t="str">
-        <v>maputo</v>
-      </c>
-      <c r="I17" t="str">
-        <v>On site</v>
-      </c>
-      <c r="J17" t="str">
-        <v>No</v>
-      </c>
-      <c r="K17" t="str">
-        <v>No</v>
-      </c>
-      <c r="L17" t="str">
-        <v>No</v>
-      </c>
-      <c r="M17" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>1737</v>
-      </c>
-      <c r="B18" t="str">
-        <v>ESCOLA-DA-POLANA</v>
-      </c>
-      <c r="C18" t="str">
-        <v>No</v>
-      </c>
-      <c r="D18" t="str">
-        <v>EDM Prepaid / Credelec</v>
-      </c>
-      <c r="E18" t="str">
-        <v>Juma Adamo</v>
-      </c>
-      <c r="F18" t="str">
-        <v>28/12/2022</v>
-      </c>
-      <c r="G18" t="str">
-        <v>Telco</v>
-      </c>
-      <c r="H18" t="str">
-        <v>maputo</v>
-      </c>
-      <c r="I18" t="str">
-        <v>Planned</v>
-      </c>
-      <c r="J18" t="str">
-        <v>No</v>
-      </c>
-      <c r="K18" t="str">
-        <v>No</v>
-      </c>
-      <c r="L18" t="str">
-        <v>No</v>
-      </c>
-      <c r="M18" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>1237</v>
-      </c>
-      <c r="B19" t="str">
-        <v>RESIDENCIA-SELF</v>
-      </c>
-      <c r="C19" t="str">
-        <v>No</v>
-      </c>
-      <c r="D19" t="str">
-        <v>Landlord</v>
-      </c>
-      <c r="E19" t="str">
-        <v>Juma Adamo</v>
-      </c>
-      <c r="F19" t="str">
-        <v>30/12/2022</v>
-      </c>
-      <c r="G19" t="str">
-        <v>Telco</v>
-      </c>
-      <c r="H19" t="str">
-        <v>maputo</v>
-      </c>
-      <c r="I19" t="str">
-        <v>Planned</v>
-      </c>
-      <c r="J19" t="str">
-        <v>No</v>
-      </c>
-      <c r="K19" t="str">
-        <v>No</v>
-      </c>
-      <c r="L19" t="str">
-        <v>No</v>
-      </c>
-      <c r="M19" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>1621</v>
-      </c>
-      <c r="B20" t="str">
-        <v>UNIVERSIDADE-DE-SAO-TOMAS</v>
-      </c>
-      <c r="C20" t="str">
-        <v>No</v>
-      </c>
-      <c r="D20" t="str">
-        <v>EDM Prepaid / Credelec</v>
-      </c>
-      <c r="E20" t="str">
-        <v>Juma Adamo</v>
-      </c>
-      <c r="F20" t="str">
-        <v>30/12/2022</v>
-      </c>
-      <c r="G20" t="str">
-        <v>Telco</v>
-      </c>
-      <c r="H20" t="str">
-        <v>maputo</v>
-      </c>
-      <c r="I20" t="str">
-        <v>Planned</v>
-      </c>
-      <c r="J20" t="str">
-        <v>No</v>
-      </c>
-      <c r="K20" t="str">
-        <v>No</v>
-      </c>
-      <c r="L20" t="str">
-        <v>No</v>
-      </c>
-      <c r="M20" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>1216</v>
-      </c>
-      <c r="B21" t="str">
-        <v>MATENDENE-II</v>
-      </c>
-      <c r="C21" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="D21" t="str">
-        <v>null</v>
-      </c>
-      <c r="E21" t="str">
-        <v>Juma Adamo</v>
-      </c>
-      <c r="F21" t="str">
-        <v>15/12/2022</v>
-      </c>
-      <c r="G21" t="str">
-        <v>Telco</v>
-      </c>
-      <c r="H21" t="str">
-        <v>maputo</v>
-      </c>
-      <c r="I21" t="str">
-        <v>Work Done</v>
-      </c>
-      <c r="J21" t="str">
-        <v>No</v>
-      </c>
-      <c r="K21" t="str">
-        <v>No</v>
-      </c>
-      <c r="L21" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="M21" t="str">
         <v>No</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M16"/>
   </ignoredErrors>
 </worksheet>
 </file>